--- a/data/trans_orig/P16B09-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16B09-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD2826C6-1D99-41F9-8A97-C8AAA6F1B817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{49416CAF-359D-4220-B94C-8DF9459AB628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9D27FA76-4DEB-4254-9E8F-EF3403AE3506}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6DF0BA2F-8938-4A6B-A9A8-45E9970EF099}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="171">
   <si>
     <t>Porcentajes de medicamentos para el reuma recetados en 2007 (Tasa respuesta: 4,02%)</t>
   </si>
@@ -226,49 +226,55 @@
     <t>91,28%</t>
   </si>
   <si>
-    <t>78,4%</t>
+    <t>77,53%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
   </si>
   <si>
     <t>95,71%</t>
   </si>
   <si>
-    <t>86,59%</t>
+    <t>86,32%</t>
   </si>
   <si>
     <t>94,06%</t>
   </si>
   <si>
-    <t>87,21%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
   </si>
   <si>
     <t>8,72%</t>
   </si>
   <si>
-    <t>21,6%</t>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
   </si>
   <si>
     <t>4,29%</t>
   </si>
   <si>
-    <t>13,41%</t>
+    <t>13,68%</t>
   </si>
   <si>
     <t>5,94%</t>
   </si>
   <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
   </si>
   <si>
     <t>97,14%</t>
   </si>
   <si>
-    <t>91,75%</t>
+    <t>92,45%</t>
   </si>
   <si>
     <t>99,15%</t>
@@ -277,7 +283,7 @@
     <t>98,69%</t>
   </si>
   <si>
-    <t>95,68%</t>
+    <t>96,0%</t>
   </si>
   <si>
     <t>98,13%</t>
@@ -295,13 +301,13 @@
     <t>0,85%</t>
   </si>
   <si>
-    <t>8,25%</t>
+    <t>7,55%</t>
   </si>
   <si>
     <t>1,31%</t>
   </si>
   <si>
-    <t>4,32%</t>
+    <t>4,0%</t>
   </si>
   <si>
     <t>1,87%</t>
@@ -328,22 +334,22 @@
     <t>5,16%</t>
   </si>
   <si>
-    <t>73,23%</t>
+    <t>78,7%</t>
   </si>
   <si>
     <t>95,88%</t>
   </si>
   <si>
-    <t>82,18%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
+    <t>75,92%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
   </si>
   <si>
     <t>4,12%</t>
   </si>
   <si>
-    <t>17,82%</t>
+    <t>24,08%</t>
   </si>
   <si>
     <t>88,17%</t>
@@ -352,13 +358,13 @@
     <t>97,07%</t>
   </si>
   <si>
-    <t>87,87%</t>
+    <t>87,97%</t>
   </si>
   <si>
     <t>97,93%</t>
   </si>
   <si>
-    <t>89,81%</t>
+    <t>89,43%</t>
   </si>
   <si>
     <t>11,83%</t>
@@ -367,13 +373,13 @@
     <t>2,93%</t>
   </si>
   <si>
-    <t>12,13%</t>
+    <t>12,03%</t>
   </si>
   <si>
     <t>2,07%</t>
   </si>
   <si>
-    <t>10,19%</t>
+    <t>10,57%</t>
   </si>
   <si>
     <t>91,36%</t>
@@ -403,25 +409,25 @@
     <t>97,99%</t>
   </si>
   <si>
-    <t>89,08%</t>
+    <t>89,75%</t>
   </si>
   <si>
     <t>98,34%</t>
   </si>
   <si>
-    <t>91,5%</t>
+    <t>91,08%</t>
   </si>
   <si>
     <t>2,01%</t>
   </si>
   <si>
-    <t>10,92%</t>
+    <t>10,25%</t>
   </si>
   <si>
     <t>1,66%</t>
   </si>
   <si>
-    <t>8,5%</t>
+    <t>8,92%</t>
   </si>
   <si>
     <t>96,96%</t>
@@ -430,16 +436,16 @@
     <t>98,46%</t>
   </si>
   <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
   </si>
   <si>
     <t>98,85%</t>
   </si>
   <si>
-    <t>96,51%</t>
+    <t>96,91%</t>
   </si>
   <si>
     <t>99,64%</t>
@@ -451,10 +457,10 @@
     <t>1,54%</t>
   </si>
   <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
   </si>
   <si>
     <t>1,15%</t>
@@ -463,7 +469,7 @@
     <t>0,36%</t>
   </si>
   <si>
-    <t>3,49%</t>
+    <t>3,09%</t>
   </si>
   <si>
     <t>Porcentajes de medicamentos para el reuma recetados en 2015 (Tasa respuesta: 2,48%)</t>
@@ -493,13 +499,13 @@
     <t>94,33%</t>
   </si>
   <si>
-    <t>76,92%</t>
+    <t>77,24%</t>
   </si>
   <si>
     <t>94,92%</t>
   </si>
   <si>
-    <t>79,04%</t>
+    <t>78,97%</t>
   </si>
   <si>
     <t>44,41%</t>
@@ -508,13 +514,13 @@
     <t>5,67%</t>
   </si>
   <si>
-    <t>23,08%</t>
+    <t>22,76%</t>
   </si>
   <si>
     <t>5,08%</t>
   </si>
   <si>
-    <t>20,96%</t>
+    <t>21,03%</t>
   </si>
   <si>
     <t>95,93%</t>
@@ -523,13 +529,13 @@
     <t>98,68%</t>
   </si>
   <si>
-    <t>93,46%</t>
+    <t>93,51%</t>
   </si>
   <si>
     <t>99,01%</t>
   </si>
   <si>
-    <t>94,31%</t>
+    <t>95,48%</t>
   </si>
   <si>
     <t>4,07%</t>
@@ -538,13 +544,13 @@
     <t>1,32%</t>
   </si>
   <si>
-    <t>6,54%</t>
+    <t>6,49%</t>
   </si>
   <si>
     <t>0,99%</t>
   </si>
   <si>
-    <t>5,69%</t>
+    <t>4,52%</t>
   </si>
 </sst>
 </file>
@@ -956,7 +962,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B317E2B-89E9-42A7-B916-8283F87FEB75}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{278FEF7E-3D36-4EAD-AE71-CD6F26F69970}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2171,7 +2177,7 @@
         <v>62</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="H25" s="7">
         <v>46</v>
@@ -2180,10 +2186,10 @@
         <v>50259</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>11</v>
@@ -2195,13 +2201,13 @@
         <v>78838</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2216,13 +2222,13 @@
         <v>2730</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -2231,13 +2237,13 @@
         <v>2251</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M26" s="7">
         <v>5</v>
@@ -2246,13 +2252,13 @@
         <v>4981</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2320,13 +2326,13 @@
         <v>92562</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H28" s="7">
         <v>162</v>
@@ -2335,10 +2341,10 @@
         <v>169281</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>11</v>
@@ -2350,13 +2356,13 @@
         <v>261843</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2371,13 +2377,13 @@
         <v>2730</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H29" s="7">
         <v>2</v>
@@ -2386,13 +2392,13 @@
         <v>2251</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M29" s="7">
         <v>5</v>
@@ -2401,13 +2407,13 @@
         <v>4981</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2463,7 +2469,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -2487,7 +2493,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E1E3D4E-A2BA-4036-A2E3-1747C2B5959F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CF53B23-081F-439B-AA77-F8A9652FF0ED}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2504,7 +2510,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2609,39 +2615,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2654,39 +2660,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2699,39 +2705,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2781,7 +2787,7 @@
         <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>13</v>
@@ -2835,7 +2841,7 @@
         <v>18</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2918,10 +2924,10 @@
         <v>19154</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>11</v>
@@ -2933,10 +2939,10 @@
         <v>24252</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>11</v>
@@ -2969,13 +2975,13 @@
         <v>1042</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -2984,13 +2990,13 @@
         <v>1043</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3061,7 +3067,7 @@
         <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>13</v>
@@ -3073,10 +3079,10 @@
         <v>37721</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>11</v>
@@ -3088,10 +3094,10 @@
         <v>54029</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>11</v>
@@ -3115,7 +3121,7 @@
         <v>18</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -3124,13 +3130,13 @@
         <v>1140</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -3139,13 +3145,13 @@
         <v>1140</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3231,7 +3237,7 @@
         <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>13</v>
@@ -3285,7 +3291,7 @@
         <v>18</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -3401,7 +3407,7 @@
         <v>11</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>13</v>
@@ -3455,7 +3461,7 @@
         <v>18</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3541,7 +3547,7 @@
         <v>11</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>13</v>
@@ -3556,7 +3562,7 @@
         <v>11</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>13</v>
@@ -3595,7 +3601,7 @@
         <v>18</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -3610,7 +3616,7 @@
         <v>18</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3693,10 +3699,10 @@
         <v>48780</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>11</v>
@@ -3708,10 +3714,10 @@
         <v>59382</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>11</v>
@@ -3744,13 +3750,13 @@
         <v>999</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -3759,13 +3765,13 @@
         <v>999</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3836,7 +3842,7 @@
         <v>11</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>13</v>
@@ -3848,13 +3854,13 @@
         <v>203337</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M28" s="7">
         <v>250</v>
@@ -3863,13 +3869,13 @@
         <v>272799</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3890,7 +3896,7 @@
         <v>18</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H29" s="7">
         <v>3</v>
@@ -3899,13 +3905,13 @@
         <v>3182</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M29" s="7">
         <v>3</v>
@@ -3914,13 +3920,13 @@
         <v>3182</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3976,7 +3982,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -4000,7 +4006,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F24A8274-EFE2-4452-BED7-6316A507EE2C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8201EC7-9C1A-4F30-890B-36BBEF10CF0C}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4017,7 +4023,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4297,7 +4303,7 @@
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
@@ -4312,7 +4318,7 @@
         <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>13</v>
@@ -4351,7 +4357,7 @@
         <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4366,7 +4372,7 @@
         <v>18</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4607,7 +4613,7 @@
         <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>13</v>
@@ -4661,7 +4667,7 @@
         <v>18</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -4742,13 +4748,13 @@
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H16" s="7">
         <v>11</v>
@@ -4791,13 +4797,13 @@
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -4840,13 +4846,13 @@
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H18" s="7">
         <v>11</v>
@@ -4926,7 +4932,7 @@
         <v>11</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>13</v>
@@ -4980,7 +4986,7 @@
         <v>18</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5081,7 +5087,7 @@
         <v>11</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>13</v>
@@ -5135,7 +5141,7 @@
         <v>18</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5206,7 +5212,7 @@
         <v>11</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>13</v>
@@ -5218,10 +5224,10 @@
         <v>29162</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>11</v>
@@ -5233,10 +5239,10 @@
         <v>32769</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>11</v>
@@ -5260,7 +5266,7 @@
         <v>18</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -5269,13 +5275,13 @@
         <v>1753</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -5284,13 +5290,13 @@
         <v>1753</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5361,7 +5367,7 @@
         <v>11</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>13</v>
@@ -5373,10 +5379,10 @@
         <v>130554</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>11</v>
@@ -5388,10 +5394,10 @@
         <v>175749</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>11</v>
@@ -5415,7 +5421,7 @@
         <v>18</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H29" s="7">
         <v>1</v>
@@ -5424,13 +5430,13 @@
         <v>1753</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M29" s="7">
         <v>1</v>
@@ -5439,13 +5445,13 @@
         <v>1753</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5501,7 +5507,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16B09-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16B09-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{49416CAF-359D-4220-B94C-8DF9459AB628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF14E96F-ECE8-4874-B7FB-99574F206C24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6DF0BA2F-8938-4A6B-A9A8-45E9970EF099}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C4D9ADAD-BD22-4A67-A3C8-B4B61E45FE6B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="169">
   <si>
     <t>Porcentajes de medicamentos para el reuma recetados en 2007 (Tasa respuesta: 4,02%)</t>
   </si>
@@ -226,7 +226,7 @@
     <t>91,28%</t>
   </si>
   <si>
-    <t>77,53%</t>
+    <t>76,67%</t>
   </si>
   <si>
     <t>97,39%</t>
@@ -235,16 +235,16 @@
     <t>95,71%</t>
   </si>
   <si>
-    <t>86,32%</t>
+    <t>86,87%</t>
   </si>
   <si>
     <t>94,06%</t>
   </si>
   <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
+    <t>87,2%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
   </si>
   <si>
     <t>8,72%</t>
@@ -253,70 +253,70 @@
     <t>2,61%</t>
   </si>
   <si>
-    <t>22,47%</t>
+    <t>23,33%</t>
   </si>
   <si>
     <t>4,29%</t>
   </si>
   <si>
-    <t>13,68%</t>
+    <t>13,13%</t>
   </si>
   <si>
     <t>5,94%</t>
   </si>
   <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
   </si>
   <si>
     <t>97,14%</t>
   </si>
   <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
   </si>
   <si>
     <t>98,69%</t>
   </si>
   <si>
-    <t>96,0%</t>
+    <t>95,45%</t>
   </si>
   <si>
     <t>98,13%</t>
   </si>
   <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
   </si>
   <si>
     <t>2,86%</t>
   </si>
   <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
   </si>
   <si>
     <t>1,31%</t>
   </si>
   <si>
-    <t>4,0%</t>
+    <t>4,55%</t>
   </si>
   <si>
     <t>1,87%</t>
   </si>
   <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -334,22 +334,22 @@
     <t>5,16%</t>
   </si>
   <si>
-    <t>78,7%</t>
+    <t>75,39%</t>
   </si>
   <si>
     <t>95,88%</t>
   </si>
   <si>
-    <t>75,92%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
+    <t>78,94%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
   </si>
   <si>
     <t>4,12%</t>
   </si>
   <si>
-    <t>24,08%</t>
+    <t>21,06%</t>
   </si>
   <si>
     <t>88,17%</t>
@@ -358,13 +358,13 @@
     <t>97,07%</t>
   </si>
   <si>
-    <t>87,97%</t>
+    <t>85,07%</t>
   </si>
   <si>
     <t>97,93%</t>
   </si>
   <si>
-    <t>89,43%</t>
+    <t>89,77%</t>
   </si>
   <si>
     <t>11,83%</t>
@@ -373,13 +373,13 @@
     <t>2,93%</t>
   </si>
   <si>
-    <t>12,03%</t>
+    <t>14,93%</t>
   </si>
   <si>
     <t>2,07%</t>
   </si>
   <si>
-    <t>10,57%</t>
+    <t>10,23%</t>
   </si>
   <si>
     <t>91,36%</t>
@@ -409,34 +409,28 @@
     <t>97,99%</t>
   </si>
   <si>
-    <t>89,75%</t>
+    <t>89,24%</t>
   </si>
   <si>
     <t>98,34%</t>
   </si>
   <si>
-    <t>91,08%</t>
-  </si>
-  <si>
     <t>2,01%</t>
   </si>
   <si>
-    <t>10,25%</t>
+    <t>10,76%</t>
   </si>
   <si>
     <t>1,66%</t>
   </si>
   <si>
-    <t>8,92%</t>
-  </si>
-  <si>
     <t>96,96%</t>
   </si>
   <si>
     <t>98,46%</t>
   </si>
   <si>
-    <t>95,83%</t>
+    <t>95,47%</t>
   </si>
   <si>
     <t>99,52%</t>
@@ -445,7 +439,7 @@
     <t>98,85%</t>
   </si>
   <si>
-    <t>96,91%</t>
+    <t>96,89%</t>
   </si>
   <si>
     <t>99,64%</t>
@@ -460,7 +454,7 @@
     <t>0,48%</t>
   </si>
   <si>
-    <t>4,17%</t>
+    <t>4,53%</t>
   </si>
   <si>
     <t>1,15%</t>
@@ -469,10 +463,10 @@
     <t>0,36%</t>
   </si>
   <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>Porcentajes de medicamentos para el reuma recetados en 2015 (Tasa respuesta: 2,48%)</t>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>Porcentajes de medicamentos para el reuma recetados en 2016 (Tasa respuesta: 2,48%)</t>
   </si>
   <si>
     <t>87,39%</t>
@@ -499,13 +493,13 @@
     <t>94,33%</t>
   </si>
   <si>
-    <t>77,24%</t>
+    <t>76,1%</t>
   </si>
   <si>
     <t>94,92%</t>
   </si>
   <si>
-    <t>78,97%</t>
+    <t>77,21%</t>
   </si>
   <si>
     <t>44,41%</t>
@@ -514,13 +508,13 @@
     <t>5,67%</t>
   </si>
   <si>
-    <t>22,76%</t>
+    <t>23,9%</t>
   </si>
   <si>
     <t>5,08%</t>
   </si>
   <si>
-    <t>21,03%</t>
+    <t>22,79%</t>
   </si>
   <si>
     <t>95,93%</t>
@@ -529,13 +523,13 @@
     <t>98,68%</t>
   </si>
   <si>
-    <t>93,51%</t>
+    <t>93,26%</t>
   </si>
   <si>
     <t>99,01%</t>
   </si>
   <si>
-    <t>95,48%</t>
+    <t>94,13%</t>
   </si>
   <si>
     <t>4,07%</t>
@@ -544,13 +538,13 @@
     <t>1,32%</t>
   </si>
   <si>
-    <t>6,49%</t>
+    <t>6,74%</t>
   </si>
   <si>
     <t>0,99%</t>
   </si>
   <si>
-    <t>4,52%</t>
+    <t>5,87%</t>
   </si>
 </sst>
 </file>
@@ -962,7 +956,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{278FEF7E-3D36-4EAD-AE71-CD6F26F69970}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B1ED250-B7A8-48A5-8101-4510A4F490B5}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2493,7 +2487,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CF53B23-081F-439B-AA77-F8A9652FF0ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CF369D7-73DB-4CD7-A5D3-400D0F080BC7}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3717,7 +3711,7 @@
         <v>124</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>125</v>
+        <v>45</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>11</v>
@@ -3750,13 +3744,13 @@
         <v>999</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -3765,13 +3759,13 @@
         <v>999</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>129</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3842,7 +3836,7 @@
         <v>11</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>13</v>
@@ -3854,13 +3848,13 @@
         <v>203337</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="M28" s="7">
         <v>250</v>
@@ -3869,13 +3863,13 @@
         <v>272799</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3896,7 +3890,7 @@
         <v>18</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H29" s="7">
         <v>3</v>
@@ -3905,13 +3899,13 @@
         <v>3182</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M29" s="7">
         <v>3</v>
@@ -3920,13 +3914,13 @@
         <v>3182</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4006,7 +4000,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8201EC7-9C1A-4F30-890B-36BBEF10CF0C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E07E4F55-706D-48D0-92E8-0D9FA8761B08}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4023,7 +4017,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4303,7 +4297,7 @@
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
@@ -4357,7 +4351,7 @@
         <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4613,7 +4607,7 @@
         <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>13</v>
@@ -4667,7 +4661,7 @@
         <v>18</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -4932,7 +4926,7 @@
         <v>11</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>13</v>
@@ -4986,7 +4980,7 @@
         <v>18</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5087,7 +5081,7 @@
         <v>11</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>13</v>
@@ -5141,7 +5135,7 @@
         <v>18</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5212,7 +5206,7 @@
         <v>11</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>13</v>
@@ -5224,10 +5218,10 @@
         <v>29162</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>11</v>
@@ -5239,10 +5233,10 @@
         <v>32769</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>11</v>
@@ -5266,7 +5260,7 @@
         <v>18</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -5275,13 +5269,13 @@
         <v>1753</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -5290,13 +5284,13 @@
         <v>1753</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5367,7 +5361,7 @@
         <v>11</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>13</v>
@@ -5379,10 +5373,10 @@
         <v>130554</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>11</v>
@@ -5394,10 +5388,10 @@
         <v>175749</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>11</v>
@@ -5421,7 +5415,7 @@
         <v>18</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H29" s="7">
         <v>1</v>
@@ -5430,13 +5424,13 @@
         <v>1753</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="M29" s="7">
         <v>1</v>
@@ -5445,13 +5439,13 @@
         <v>1753</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P16B09-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16B09-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF14E96F-ECE8-4874-B7FB-99574F206C24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{07F18902-88D3-40EB-9085-E69191FDB811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C4D9ADAD-BD22-4A67-A3C8-B4B61E45FE6B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{19D3EFB1-7B1F-4B7A-9D25-2B4340E32CAF}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -70,7 +70,7 @@
     <t>Almeria</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -226,97 +226,91 @@
     <t>91,28%</t>
   </si>
   <si>
-    <t>76,67%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
+    <t>78,4%</t>
   </si>
   <si>
     <t>95,71%</t>
   </si>
   <si>
-    <t>86,87%</t>
+    <t>86,59%</t>
   </si>
   <si>
     <t>94,06%</t>
   </si>
   <si>
-    <t>87,2%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
+    <t>87,21%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
   </si>
   <si>
     <t>8,72%</t>
   </si>
   <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
+    <t>21,6%</t>
   </si>
   <si>
     <t>4,29%</t>
   </si>
   <si>
-    <t>13,13%</t>
+    <t>13,41%</t>
   </si>
   <si>
     <t>5,94%</t>
   </si>
   <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
   </si>
   <si>
     <t>97,14%</t>
   </si>
   <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
   </si>
   <si>
     <t>98,69%</t>
   </si>
   <si>
-    <t>95,45%</t>
+    <t>95,68%</t>
   </si>
   <si>
     <t>98,13%</t>
   </si>
   <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
   </si>
   <si>
     <t>2,86%</t>
   </si>
   <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
   </si>
   <si>
     <t>1,31%</t>
   </si>
   <si>
-    <t>4,55%</t>
+    <t>4,32%</t>
   </si>
   <si>
     <t>1,87%</t>
   </si>
   <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -334,22 +328,22 @@
     <t>5,16%</t>
   </si>
   <si>
-    <t>75,39%</t>
+    <t>73,23%</t>
   </si>
   <si>
     <t>95,88%</t>
   </si>
   <si>
-    <t>78,94%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
+    <t>82,18%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
   </si>
   <si>
     <t>4,12%</t>
   </si>
   <si>
-    <t>21,06%</t>
+    <t>17,82%</t>
   </si>
   <si>
     <t>88,17%</t>
@@ -358,13 +352,13 @@
     <t>97,07%</t>
   </si>
   <si>
-    <t>85,07%</t>
+    <t>87,87%</t>
   </si>
   <si>
     <t>97,93%</t>
   </si>
   <si>
-    <t>89,77%</t>
+    <t>89,81%</t>
   </si>
   <si>
     <t>11,83%</t>
@@ -373,13 +367,13 @@
     <t>2,93%</t>
   </si>
   <si>
-    <t>14,93%</t>
+    <t>12,13%</t>
   </si>
   <si>
     <t>2,07%</t>
   </si>
   <si>
-    <t>10,23%</t>
+    <t>10,19%</t>
   </si>
   <si>
     <t>91,36%</t>
@@ -409,37 +403,43 @@
     <t>97,99%</t>
   </si>
   <si>
-    <t>89,24%</t>
+    <t>89,08%</t>
   </si>
   <si>
     <t>98,34%</t>
   </si>
   <si>
+    <t>91,5%</t>
+  </si>
+  <si>
     <t>2,01%</t>
   </si>
   <si>
-    <t>10,76%</t>
+    <t>10,92%</t>
   </si>
   <si>
     <t>1,66%</t>
   </si>
   <si>
+    <t>8,5%</t>
+  </si>
+  <si>
     <t>96,96%</t>
   </si>
   <si>
     <t>98,46%</t>
   </si>
   <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
   </si>
   <si>
     <t>98,85%</t>
   </si>
   <si>
-    <t>96,89%</t>
+    <t>96,51%</t>
   </si>
   <si>
     <t>99,64%</t>
@@ -451,10 +451,10 @@
     <t>1,54%</t>
   </si>
   <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
   </si>
   <si>
     <t>1,15%</t>
@@ -463,7 +463,7 @@
     <t>0,36%</t>
   </si>
   <si>
-    <t>3,11%</t>
+    <t>3,49%</t>
   </si>
   <si>
     <t>Porcentajes de medicamentos para el reuma recetados en 2016 (Tasa respuesta: 2,48%)</t>
@@ -493,13 +493,13 @@
     <t>94,33%</t>
   </si>
   <si>
-    <t>76,1%</t>
+    <t>76,92%</t>
   </si>
   <si>
     <t>94,92%</t>
   </si>
   <si>
-    <t>77,21%</t>
+    <t>79,04%</t>
   </si>
   <si>
     <t>44,41%</t>
@@ -508,13 +508,13 @@
     <t>5,67%</t>
   </si>
   <si>
-    <t>23,9%</t>
+    <t>23,08%</t>
   </si>
   <si>
     <t>5,08%</t>
   </si>
   <si>
-    <t>22,79%</t>
+    <t>20,96%</t>
   </si>
   <si>
     <t>95,93%</t>
@@ -523,13 +523,13 @@
     <t>98,68%</t>
   </si>
   <si>
-    <t>93,26%</t>
+    <t>93,46%</t>
   </si>
   <si>
     <t>99,01%</t>
   </si>
   <si>
-    <t>94,13%</t>
+    <t>94,31%</t>
   </si>
   <si>
     <t>4,07%</t>
@@ -538,13 +538,13 @@
     <t>1,32%</t>
   </si>
   <si>
-    <t>6,74%</t>
+    <t>6,54%</t>
   </si>
   <si>
     <t>0,99%</t>
   </si>
   <si>
-    <t>5,87%</t>
+    <t>5,69%</t>
   </si>
 </sst>
 </file>
@@ -956,7 +956,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B1ED250-B7A8-48A5-8101-4510A4F490B5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5B8CD54-AE6D-46F7-A186-F2C382953782}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2171,7 +2171,7 @@
         <v>62</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="H25" s="7">
         <v>46</v>
@@ -2180,10 +2180,10 @@
         <v>50259</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>11</v>
@@ -2195,13 +2195,13 @@
         <v>78838</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2216,13 +2216,13 @@
         <v>2730</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -2231,13 +2231,13 @@
         <v>2251</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="M26" s="7">
         <v>5</v>
@@ -2246,13 +2246,13 @@
         <v>4981</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2320,13 +2320,13 @@
         <v>92562</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="H28" s="7">
         <v>162</v>
@@ -2335,10 +2335,10 @@
         <v>169281</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>11</v>
@@ -2350,13 +2350,13 @@
         <v>261843</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2371,13 +2371,13 @@
         <v>2730</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="H29" s="7">
         <v>2</v>
@@ -2386,13 +2386,13 @@
         <v>2251</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="M29" s="7">
         <v>5</v>
@@ -2401,13 +2401,13 @@
         <v>4981</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2463,7 +2463,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -2487,7 +2487,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CF369D7-73DB-4CD7-A5D3-400D0F080BC7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BF23966-65C7-4EC2-B50D-FD1F9DFF2C92}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2504,7 +2504,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2609,39 +2609,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2654,39 +2654,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2699,39 +2699,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2781,7 +2781,7 @@
         <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>13</v>
@@ -2835,7 +2835,7 @@
         <v>18</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2918,10 +2918,10 @@
         <v>19154</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>11</v>
@@ -2933,10 +2933,10 @@
         <v>24252</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>11</v>
@@ -2969,13 +2969,13 @@
         <v>1042</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -2984,13 +2984,13 @@
         <v>1043</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3061,7 +3061,7 @@
         <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>13</v>
@@ -3073,10 +3073,10 @@
         <v>37721</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>11</v>
@@ -3088,10 +3088,10 @@
         <v>54029</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>11</v>
@@ -3115,7 +3115,7 @@
         <v>18</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -3124,13 +3124,13 @@
         <v>1140</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -3139,13 +3139,13 @@
         <v>1140</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3231,7 +3231,7 @@
         <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>13</v>
@@ -3285,7 +3285,7 @@
         <v>18</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -3401,7 +3401,7 @@
         <v>11</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>13</v>
@@ -3455,7 +3455,7 @@
         <v>18</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3541,7 +3541,7 @@
         <v>11</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>13</v>
@@ -3556,7 +3556,7 @@
         <v>11</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>13</v>
@@ -3595,7 +3595,7 @@
         <v>18</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -3610,7 +3610,7 @@
         <v>18</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3693,10 +3693,10 @@
         <v>48780</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>11</v>
@@ -3708,10 +3708,10 @@
         <v>59382</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>45</v>
+        <v>123</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>11</v>
@@ -3744,13 +3744,13 @@
         <v>999</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -3759,13 +3759,13 @@
         <v>999</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3976,7 +3976,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -4000,7 +4000,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E07E4F55-706D-48D0-92E8-0D9FA8761B08}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1F39B9A-CBD7-42FD-BF6B-62769AA04B06}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4312,7 +4312,7 @@
         <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>13</v>
@@ -4366,7 +4366,7 @@
         <v>18</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4742,13 +4742,13 @@
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H16" s="7">
         <v>11</v>
@@ -4791,13 +4791,13 @@
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -4840,13 +4840,13 @@
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H18" s="7">
         <v>11</v>
@@ -5501,7 +5501,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16B09-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16B09-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{07F18902-88D3-40EB-9085-E69191FDB811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F3414B47-AE92-4347-8C2A-7FB735F385E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{19D3EFB1-7B1F-4B7A-9D25-2B4340E32CAF}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{4FF2F8DE-4C11-4539-BCA7-C27157B63E9A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -319,160 +319,160 @@
     <t>Porcentajes de medicamentos para el reuma recetados en 2012 (Tasa respuesta: 3,89%)</t>
   </si>
   <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>73,23%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>82,18%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>81,27%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>83,62%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>Porcentajes de medicamentos para el reuma recetados en 2016 (Tasa respuesta: 2,48%)</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
     <t>—%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>73,23%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>82,18%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>87,87%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>89,81%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>Porcentajes de medicamentos para el reuma recetados en 2016 (Tasa respuesta: 2,48%)</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
   </si>
   <si>
     <t>89,47%</t>
@@ -956,7 +956,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5B8CD54-AE6D-46F7-A186-F2C382953782}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1C2850A-007C-4104-8751-F5BF18C23A58}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2487,7 +2487,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BF23966-65C7-4EC2-B50D-FD1F9DFF2C92}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F378AE10-1C0C-45D6-8B55-D471EB0B7204}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2605,43 +2605,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="D4" s="7">
+        <v>3966</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>93</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>9</v>
+      </c>
+      <c r="I4" s="7">
+        <v>10349</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>93</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>13</v>
+      </c>
+      <c r="N4" s="7">
+        <v>14315</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>93</v>
+        <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>93</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2652,41 +2658,47 @@
       <c r="C5" s="7">
         <v>0</v>
       </c>
-      <c r="D5" s="7"/>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>93</v>
+        <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>93</v>
+        <v>18</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>93</v>
+        <v>33</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
-      <c r="I5" s="7"/>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>93</v>
+        <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>93</v>
+        <v>18</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>93</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
-      <c r="N5" s="7"/>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>93</v>
+        <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>93</v>
+        <v>18</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2695,43 +2707,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="D6" s="7">
+        <v>3966</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>9</v>
+      </c>
+      <c r="I6" s="7">
+        <v>10349</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>13</v>
+      </c>
+      <c r="N6" s="7">
+        <v>14315</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2781,7 +2799,7 @@
         <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>13</v>
@@ -2835,7 +2853,7 @@
         <v>18</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2918,10 +2936,10 @@
         <v>19154</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>11</v>
@@ -2933,10 +2951,10 @@
         <v>24252</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>11</v>
@@ -2969,13 +2987,13 @@
         <v>1042</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -2984,13 +3002,13 @@
         <v>1043</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3052,25 +3070,25 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D13" s="7">
-        <v>16307</v>
+        <v>12341</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>102</v>
+        <v>14</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H13" s="7">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="I13" s="7">
-        <v>37721</v>
+        <v>27372</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>103</v>
@@ -3082,10 +3100,10 @@
         <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="N13" s="7">
-        <v>54029</v>
+        <v>39714</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>105</v>
@@ -3115,7 +3133,7 @@
         <v>18</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>107</v>
+        <v>20</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -3124,13 +3142,13 @@
         <v>1140</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -3139,13 +3157,13 @@
         <v>1140</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3154,10 +3172,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D15" s="7">
-        <v>16307</v>
+        <v>12341</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>13</v>
@@ -3169,10 +3187,10 @@
         <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="I15" s="7">
-        <v>38861</v>
+        <v>28512</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -3184,10 +3202,10 @@
         <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="N15" s="7">
-        <v>55169</v>
+        <v>40854</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>13</v>
@@ -3231,7 +3249,7 @@
         <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>13</v>
@@ -3285,7 +3303,7 @@
         <v>18</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -3401,7 +3419,7 @@
         <v>11</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>13</v>
@@ -3455,7 +3473,7 @@
         <v>18</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3541,7 +3559,7 @@
         <v>11</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>13</v>
@@ -3556,7 +3574,7 @@
         <v>11</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>13</v>
@@ -3595,22 +3613,22 @@
         <v>18</v>
       </c>
       <c r="L23" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="M23" s="7">
+        <v>0</v>
+      </c>
+      <c r="N23" s="7">
+        <v>0</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="M23" s="7">
-        <v>0</v>
-      </c>
-      <c r="N23" s="7">
-        <v>0</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3693,10 +3711,10 @@
         <v>48780</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>11</v>
@@ -3708,10 +3726,10 @@
         <v>59382</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>11</v>
@@ -3744,13 +3762,13 @@
         <v>999</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -3759,13 +3777,13 @@
         <v>999</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3836,7 +3854,7 @@
         <v>11</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>13</v>
@@ -3848,13 +3866,13 @@
         <v>203337</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M28" s="7">
         <v>250</v>
@@ -3863,13 +3881,13 @@
         <v>272799</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3890,7 +3908,7 @@
         <v>18</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H29" s="7">
         <v>3</v>
@@ -3899,13 +3917,13 @@
         <v>3182</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M29" s="7">
         <v>3</v>
@@ -3914,13 +3932,13 @@
         <v>3182</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4000,7 +4018,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1F39B9A-CBD7-42FD-BF6B-62769AA04B06}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D017FF4E-D476-463F-8867-6CC69B5693AA}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4017,7 +4035,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4297,7 +4315,7 @@
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
@@ -4312,7 +4330,7 @@
         <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>13</v>
@@ -4351,7 +4369,7 @@
         <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4366,7 +4384,7 @@
         <v>18</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4607,7 +4625,7 @@
         <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>13</v>
@@ -4661,7 +4679,7 @@
         <v>18</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -4742,13 +4760,13 @@
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7" t="s">
-        <v>93</v>
+        <v>144</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>93</v>
+        <v>144</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>93</v>
+        <v>144</v>
       </c>
       <c r="H16" s="7">
         <v>11</v>
@@ -4791,13 +4809,13 @@
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7" t="s">
-        <v>93</v>
+        <v>144</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>93</v>
+        <v>144</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>93</v>
+        <v>144</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -4840,13 +4858,13 @@
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7" t="s">
-        <v>93</v>
+        <v>144</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>93</v>
+        <v>144</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>93</v>
+        <v>144</v>
       </c>
       <c r="H18" s="7">
         <v>11</v>
